--- a/Data/Datas/J_角色/角色列表/jynew角色.xlsx
+++ b/Data/Datas/J_角色/角色列表/jynew角色.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" tabRatio="329"/>
+    <workbookView windowHeight="17940" tabRatio="329"/>
   </bookViews>
   <sheets>
     <sheet name="门派角色" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -63,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="172">
   <si>
     <t>##var</t>
   </si>
@@ -585,21 +572,18 @@
     <t>i18/role/main/name/16</t>
   </si>
   <si>
+    <t>1_1,2_2,3_1</t>
+  </si>
+  <si>
     <t>夜郎</t>
   </si>
   <si>
-    <t>1_1,2_2,3_1</t>
-  </si>
-  <si>
     <t>司空玄</t>
   </si>
   <si>
     <t>i18/role/main/name/17</t>
   </si>
   <si>
-    <t>东方鲨</t>
-  </si>
-  <si>
     <t>盘龙棍法,1,10,TRUE;潜龙心法,6,10,TRUE;轻身术,1,10,TRUE</t>
   </si>
   <si>
@@ -615,9 +599,6 @@
     <t>i18/role/main/name/18</t>
   </si>
   <si>
-    <t>东方豚</t>
-  </si>
-  <si>
     <t>蛟龙枪法,6,10,TRUE;潜龙心法,2,10,TRUE;轻身术,10,10,TRUE</t>
   </si>
   <si>
@@ -636,9 +617,6 @@
     <t>i18/role/main/name/19</t>
   </si>
   <si>
-    <t>东方狸</t>
-  </si>
-  <si>
     <t>骤雨寒冰拳,1,10,TRUE;水鳞真诀,1,10,TRUE;轻身术,1,10,TRUE</t>
   </si>
   <si>
@@ -654,22 +632,22 @@
     <t>i18/role/main/name/20</t>
   </si>
   <si>
+    <t>骤雨寒冰拳,3,10,TRUE;水鳞真诀,3,10,TRUE;轻身术,4,10,TRUE</t>
+  </si>
+  <si>
+    <t>精良手套,#(3-3);精良重甲,#(3-3);精良戒指,#(3-3)</t>
+  </si>
+  <si>
+    <t>1_3,2_1</t>
+  </si>
+  <si>
     <t>东方骤雨</t>
-  </si>
-  <si>
-    <t>骤雨寒冰拳,3,10,TRUE;水鳞真诀,3,10,TRUE;轻身术,4,10,TRUE</t>
-  </si>
-  <si>
-    <t>精良手套,#(3-3);精良重甲,#(3-3);精良戒指,#(3-3)</t>
-  </si>
-  <si>
-    <t>1_3,2_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -718,6 +696,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -731,6 +730,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -775,21 +782,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -827,20 +819,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -885,13 +863,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,6 +923,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -927,18 +959,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -951,36 +971,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -999,24 +995,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1030,12 +1014,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1036,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1090,21 +1083,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,148 +1141,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,19 +1290,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="32">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="38" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="41" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1333,13 +1311,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="32" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1348,7 +1326,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="38" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1369,16 +1347,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="38" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="32" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1390,52 +1368,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1772,11 +1750,11 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2840,8 +2818,8 @@
       <c r="C18" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>145</v>
+      <c r="D18" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>53</v>
@@ -2899,8 +2877,8 @@
       <c r="C19" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>148</v>
+      <c r="D19" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>98</v>
@@ -2934,10 +2912,10 @@
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="S19" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>148</v>
       </c>
       <c r="T19" s="6" t="s">
         <v>68</v>
@@ -2958,8 +2936,8 @@
       <c r="C20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>152</v>
+      <c r="D20" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>53</v>
@@ -2988,17 +2966,17 @@
         <v>75</v>
       </c>
       <c r="O20" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="P20" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17" t="s">
         <v>115</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>68</v>
@@ -3014,13 +2992,13 @@
     </row>
     <row r="21" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B21" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>158</v>
+      <c r="D21" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>53</v>
@@ -3049,17 +3027,17 @@
         <v>72</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>68</v>
@@ -3075,13 +3053,13 @@
     </row>
     <row r="22" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B22" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>53</v>
@@ -3110,17 +3088,17 @@
         <v>68</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>68</v>
@@ -3136,13 +3114,13 @@
     </row>
     <row r="23" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B23" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>53</v>
@@ -3171,14 +3149,14 @@
         <v>62</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="S23" s="17" t="s">
         <v>171</v>

--- a/Data/Datas/J_角色/角色列表/jynew角色.xlsx
+++ b/Data/Datas/J_角色/角色列表/jynew角色.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" tabRatio="329"/>
+    <workbookView windowHeight="17775" tabRatio="329"/>
   </bookViews>
   <sheets>
     <sheet name="门派角色" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="167">
   <si>
     <t>##var</t>
   </si>
@@ -299,7 +312,7 @@
     <t>玩家</t>
   </si>
   <si>
-    <t>虎焰刀法,1,10,TRUE;基础内功,1,10,TRUE;基础身法,1,10,TRUE</t>
+    <t>野球拳,1,10,TRUE;基础内功,1,10,TRUE;基础身法,1,10,TRUE</t>
   </si>
   <si>
     <t>普通中甲,#(0-1)</t>
@@ -320,13 +333,16 @@
     <t>i18/role/main/name/2</t>
   </si>
   <si>
+    <t>铁卫</t>
+  </si>
+  <si>
     <t>特殊</t>
   </si>
   <si>
-    <t>探云摘星手,1,10,TRUE;基础内功,1,10,TRUE;基础身法,1,10,TRUE</t>
-  </si>
-  <si>
-    <t>普通手套,#(0-1);普通重甲,#(0-1)</t>
+    <t>罗汉伏魔棍法,10,10,TRUE;少林九阳功,10,10,TRUE;游龙身法,10,10,TRUE</t>
+  </si>
+  <si>
+    <t>普通棍,#(0-1);普通重甲,#(0-1)</t>
   </si>
   <si>
     <t>齐六哥</t>
@@ -347,163 +363,142 @@
     <t>i18/role/main/name/3</t>
   </si>
   <si>
+    <t>太极拳,10,10,TRUE;纯阳无极功,10,10,TRUE;梯云纵,10,10,TRUE</t>
+  </si>
+  <si>
+    <t>普通爪,#(0-1);普通轻甲,#(0-1)</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+  <si>
+    <t>岳不群</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/4</t>
+  </si>
+  <si>
+    <t>夺命连环三仙剑,10,10,TRUE;紫霞神功,10,10,TRUE;逍遥游身法,5,10,TRUE</t>
+  </si>
+  <si>
+    <t>普通剑,#(0-1);普通中甲,#(0-1)</t>
+  </si>
+  <si>
+    <t>刘明</t>
+  </si>
+  <si>
+    <t>攻击1,Voice/Male1_Attack_1.wav;攻击2,Voice/Male1_Attack_2.wav;攻击3,Voice/Male1_Attack_3.wav;攻击4,Voice/Male1_Attack_4.wav;呐喊1,Voice/Male1_Shout_1.wav;呐喊2,Voice/Male1_Shout_2.wav;受伤1,Voice/Male1_Hurt_1.wav;受伤2,Voice/Male1_Hurt_2.wav;死亡1,Voice/Male1_Death_1.wav;死亡2,Voice/Male1_Death_2.wav;叹息1,Voice/Male1_Sigh_1.wav;叹息2,Voice/Male1_Sigh_2.wav;大笑1,Voice/Male1_Laugh_1.wav;大笑2,Voice/Male1_Laugh_2.wav;呻吟1,Voice/Male1_Groan_1.wav;呻吟2,Voice/Male1_Groan_2.wav;</t>
+  </si>
+  <si>
+    <t>完颜烈</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/5</t>
+  </si>
+  <si>
+    <t>韦陀杵,10,10,TRUE;神照功,10,10,TRUE;云雾十三式,10,10,TRUE</t>
+  </si>
+  <si>
+    <t>普通棍,#(0-1);普通中甲,#(0-1)</t>
+  </si>
+  <si>
+    <t>朱三娘</t>
+  </si>
+  <si>
+    <t>余沧海</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/6</t>
+  </si>
+  <si>
+    <t>松风剑法,10,10,TRUE;龙虎心法,10,10,TRUE;云雾十三式,10,10,TRUE</t>
+  </si>
+  <si>
+    <t>朱鹮儿</t>
+  </si>
+  <si>
+    <t>蓝凤凰</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/7</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>25new</t>
+  </si>
+  <si>
+    <t>五毒掌法,10,10,TRUE;寒冰心法,6,10,TRUE;游龙身法,8,10,TRUE</t>
+  </si>
+  <si>
+    <t>1_1,2_2</t>
+  </si>
+  <si>
+    <t>何猛</t>
+  </si>
+  <si>
+    <t>攻击1,Voice/Female2_Attack_1.wav;攻击2,Voice/Female2_Attack_2.wav;攻击3,Voice/Female2_Attack_3.wav;攻击4,Voice/Female2_Attack_4.wav;呐喊1,Voice/Female2_Shout_1.wav;呐喊2,Voice/Female2_Shout_2.wav;受伤1,Voice/Female2_Hurt_1.wav;受伤2,Voice/Female2_Hurt_2.wav;死亡1,Voice/Female2_Death_1.wav;死亡2,Voice/Female2_Death_2.wav;叹息1,Voice/Female2_Sigh_1.wav;叹息2,Voice/Female2_Sigh_2.wav;大笑1,Voice/Female2_Laugh_1.wav;大笑2,Voice/Female2_Laugh_2.wav;呻吟1,Voice/Female2_Groan_1.wav;呻吟2,Voice/Female2_Groan_2.wav;</t>
+  </si>
+  <si>
+    <t>莫大</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/8</t>
+  </si>
+  <si>
     <t>刺客</t>
   </si>
   <si>
-    <t>狼爪功,1,10,TRUE;基础内功,1,10,TRUE;基础身法,1,10,TRUE</t>
-  </si>
-  <si>
-    <t>普通爪,#(0-1);普通轻甲,#(0-1)</t>
-  </si>
-  <si>
-    <t>秋</t>
-  </si>
-  <si>
-    <t>岳不群</t>
-  </si>
-  <si>
-    <t>i18/role/main/name/4</t>
-  </si>
-  <si>
-    <t>铁卫</t>
-  </si>
-  <si>
-    <t>火钳刀法,1,10,TRUE;基础内功,1,10,TRUE;基础身法,1,10,TRUE</t>
-  </si>
-  <si>
-    <t>普通刀,#(0-1);普通中甲,#(0-1)</t>
-  </si>
-  <si>
-    <t>刘明</t>
-  </si>
-  <si>
-    <t>攻击1,Voice/Male1_Attack_1.wav;攻击2,Voice/Male1_Attack_2.wav;攻击3,Voice/Male1_Attack_3.wav;攻击4,Voice/Male1_Attack_4.wav;呐喊1,Voice/Male1_Shout_1.wav;呐喊2,Voice/Male1_Shout_2.wav;受伤1,Voice/Male1_Hurt_1.wav;受伤2,Voice/Male1_Hurt_2.wav;死亡1,Voice/Male1_Death_1.wav;死亡2,Voice/Male1_Death_2.wav;叹息1,Voice/Male1_Sigh_1.wav;叹息2,Voice/Male1_Sigh_2.wav;大笑1,Voice/Male1_Laugh_1.wav;大笑2,Voice/Male1_Laugh_2.wav;呻吟1,Voice/Male1_Groan_1.wav;呻吟2,Voice/Male1_Groan_2.wav;</t>
-  </si>
-  <si>
-    <t>完颜烈</t>
-  </si>
-  <si>
-    <t>i18/role/main/name/5</t>
+    <t>回风落雁剑,10,10,TRUE;恒山心法,10,10,TRUE;云雾十三式,10,10,TRUE</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>潘麻子</t>
+  </si>
+  <si>
+    <t>东方不败</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/9</t>
+  </si>
+  <si>
+    <t>独孤九剑,10,10,TRUE;九阴神功,10,10,TRUE;神行百变,10,10,TRUE</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>男_褐长发6黄衣5</t>
+  </si>
+  <si>
+    <t>洪大猛</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/10</t>
+  </si>
+  <si>
+    <t>般若掌,10,10,TRUE;龙虎心法,10,10,TRUE;游龙身法,1,10,TRUE</t>
+  </si>
+  <si>
+    <t>普通手套,#(1-1);精良重甲,#(1-1)</t>
+  </si>
+  <si>
+    <t>汤白牛</t>
+  </si>
+  <si>
+    <t>洪通天</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/11</t>
   </si>
   <si>
     <t>医师</t>
   </si>
   <si>
-    <t>烧火棍法,1,10,TRUE;扔肉包,1,10,TRUE;基础身法,1,10,TRUE</t>
-  </si>
-  <si>
-    <t>普通棍,#(0-1);普通中甲,#(0-1)</t>
-  </si>
-  <si>
-    <t>朱三娘</t>
-  </si>
-  <si>
-    <t>余沧海</t>
-  </si>
-  <si>
-    <t>i18/role/main/name/6</t>
-  </si>
-  <si>
-    <t>游侠</t>
-  </si>
-  <si>
-    <t>朱鹮箭语,3,10,TRUE;朱雀灵焰诀,5,10,TRUE;基础身法,1,10,TRUE</t>
-  </si>
-  <si>
-    <t>稀有弓,#(0-1);稀有轻甲,#(0-1)</t>
-  </si>
-  <si>
-    <t>朱鹮儿</t>
-  </si>
-  <si>
-    <t>蓝凤凰</t>
-  </si>
-  <si>
-    <t>i18/role/main/name/7</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>25new</t>
-  </si>
-  <si>
-    <t>血戮刀法,3,10,TRUE;草木枯元功,6,10,TRUE;夜影身法,4,10,TRUE</t>
-  </si>
-  <si>
-    <t>精良刀,#(3-3);豪猪甲,#(3-3);流血刺戒,#(3-3)</t>
-  </si>
-  <si>
-    <t>1_1,2_2</t>
-  </si>
-  <si>
-    <t>何猛</t>
-  </si>
-  <si>
-    <t>攻击1,Voice/Female2_Attack_1.wav;攻击2,Voice/Female2_Attack_2.wav;攻击3,Voice/Female2_Attack_3.wav;攻击4,Voice/Female2_Attack_4.wav;呐喊1,Voice/Female2_Shout_1.wav;呐喊2,Voice/Female2_Shout_2.wav;受伤1,Voice/Female2_Hurt_1.wav;受伤2,Voice/Female2_Hurt_2.wav;死亡1,Voice/Female2_Death_1.wav;死亡2,Voice/Female2_Death_2.wav;叹息1,Voice/Female2_Sigh_1.wav;叹息2,Voice/Female2_Sigh_2.wav;大笑1,Voice/Female2_Laugh_1.wav;大笑2,Voice/Female2_Laugh_2.wav;呻吟1,Voice/Female2_Groan_1.wav;呻吟2,Voice/Female2_Groan_2.wav;</t>
-  </si>
-  <si>
-    <t>莫大</t>
-  </si>
-  <si>
-    <t>i18/role/main/name/8</t>
-  </si>
-  <si>
-    <t>断血刀法,3,10,TRUE;基础内功,10,10,TRUE;夜影身法,8,10,TRUE</t>
-  </si>
-  <si>
-    <t>绝命刀,#(2-2);精良轻甲,#(2-2);野猪齿,#(2-2)</t>
-  </si>
-  <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>潘麻子</t>
-  </si>
-  <si>
-    <t>东方不败</t>
-  </si>
-  <si>
-    <t>i18/role/main/name/9</t>
-  </si>
-  <si>
-    <t>罗汉拳,1,10,TRUE;草木枯元功,7,10,TRUE;基础身法,3,10,TRUE</t>
-  </si>
-  <si>
-    <t>普通手套,#(2-2);豪猪甲,#(2-2);福豕镯,#(2-2)</t>
-  </si>
-  <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>男_褐长发6黄衣5</t>
-  </si>
-  <si>
-    <t>洪大猛</t>
-  </si>
-  <si>
-    <t>i18/role/main/name/10</t>
-  </si>
-  <si>
-    <t>罗汉拳,2,10,TRUE;少林心法,2,10,TRUE;基础身法,1,10,TRUE</t>
-  </si>
-  <si>
-    <t>普通手套,#(1-1);精良重甲,#(1-1)</t>
-  </si>
-  <si>
-    <t>汤白牛</t>
-  </si>
-  <si>
-    <t>洪通天</t>
-  </si>
-  <si>
-    <t>i18/role/main/name/11</t>
-  </si>
-  <si>
-    <t>春风化雨掌,5,10,TRUE;百草心经,6,10,TRUE;基础身法,1,10,TRUE</t>
-  </si>
-  <si>
-    <t>精良手套,#(1-1);精良中甲,#(1-1)</t>
+    <t>韦陀杵,10,10,TRUE;九阳神功,5,10,TRUE;神行百变,5,10,TRUE</t>
   </si>
   <si>
     <t>汤彩蝶</t>
@@ -515,7 +510,7 @@
     <t>i18/role/main/name/12</t>
   </si>
   <si>
-    <t>神女剑法,2,10,TRUE;神女心经,5,10,TRUE;基础身法,1,10,TRUE</t>
+    <t>太极剑法,8,10,TRUE;神照功,5,10,TRUE;神行百变,5,10,TRUE</t>
   </si>
   <si>
     <t>精良剑,#(1-2);精良中甲,#(1-2)</t>
@@ -530,7 +525,7 @@
     <t>i18/role/main/name/13</t>
   </si>
   <si>
-    <t>血戮刀法,10,10,TRUE;龟岩气功,10,10,TRUE;夜影身法,8,10,TRUE</t>
+    <t>玄虚刀法,10,10,TRUE;铁布衫,10,10,TRUE;游龙身法,8,10,TRUE</t>
   </si>
   <si>
     <t>绝命刀,#(1-2);稀有重甲,#(1-2);流血刺戒,#(1-1)</t>
@@ -548,7 +543,7 @@
     <t>i18/role/main/name/14</t>
   </si>
   <si>
-    <t>基础拳法,1,10,TRUE;基础内功,1,10,TRUE;基础身法,1,10,TRUE</t>
+    <t>混元掌,10,10,TRUE;罗汉伏魔神功,3,10,TRUE;逍遥游身法,10,10,TRUE</t>
   </si>
   <si>
     <t>1_3,2_2,3_1</t>
@@ -563,6 +558,9 @@
     <t>i18/role/main/name/15</t>
   </si>
   <si>
+    <t>达摩剑法,10,10,TRUE;少林九阳功,10,10,TRUE;梯云纵,10,10,TRUE</t>
+  </si>
+  <si>
     <t>狮</t>
   </si>
   <si>
@@ -572,6 +570,9 @@
     <t>i18/role/main/name/16</t>
   </si>
   <si>
+    <t>天山六阳掌,10,10,TRUE;神照功,10,10,TRUE;神行百变,8,10,TRUE</t>
+  </si>
+  <si>
     <t>1_1,2_2,3_1</t>
   </si>
   <si>
@@ -584,7 +585,7 @@
     <t>i18/role/main/name/17</t>
   </si>
   <si>
-    <t>盘龙棍法,1,10,TRUE;潜龙心法,6,10,TRUE;轻身术,1,10,TRUE</t>
+    <t>千钧棍法,10,10,TRUE;寒冰心法,10,10,TRUE;游龙身法,10,10,TRUE</t>
   </si>
   <si>
     <t>精良棍,#(1-1);精良重甲,#(1-1);精良护腕,#(1-1)</t>
@@ -599,10 +600,10 @@
     <t>i18/role/main/name/18</t>
   </si>
   <si>
-    <t>蛟龙枪法,6,10,TRUE;潜龙心法,2,10,TRUE;轻身术,10,10,TRUE</t>
-  </si>
-  <si>
-    <t>精良枪,#(1-1);精良轻甲,#(1-1);精良项链,#(1-1)</t>
+    <t>降龙十八缺三掌,8,10,TRUE;少林九阳功,10,10,TRUE;游龙身法,10,10,TRUE</t>
+  </si>
+  <si>
+    <t>精良手套,#(1-1);精良重甲,#(1-1);精良戒指,#(1-1)</t>
   </si>
   <si>
     <t>1_3</t>
@@ -617,10 +618,7 @@
     <t>i18/role/main/name/19</t>
   </si>
   <si>
-    <t>骤雨寒冰拳,1,10,TRUE;水鳞真诀,1,10,TRUE;轻身术,1,10,TRUE</t>
-  </si>
-  <si>
-    <t>精良手套,#(1-1);精良重甲,#(1-1);精良戒指,#(1-1)</t>
+    <t>重阳剑法,10,10,TRUE;罗汉伏魔神功,10,10,TRUE;梯云纵,10,10,TRUE</t>
   </si>
   <si>
     <t>男_紫发1灰衣9</t>
@@ -632,7 +630,7 @@
     <t>i18/role/main/name/20</t>
   </si>
   <si>
-    <t>骤雨寒冰拳,3,10,TRUE;水鳞真诀,3,10,TRUE;轻身术,4,10,TRUE</t>
+    <t>大力金刚指,10,10,TRUE;九阳神功,3,10,TRUE;神行百变,4,10,TRUE</t>
   </si>
   <si>
     <t>精良手套,#(3-3);精良重甲,#(3-3);精良戒指,#(3-3)</t>
@@ -647,7 +645,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -696,27 +694,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -730,14 +707,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,6 +751,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -819,6 +803,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -863,18 +861,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -887,19 +957,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799340800195319"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,109 +981,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799340800195319"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,21 +1034,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1083,6 +1066,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,148 +1139,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,19 +1288,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="32">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="41" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="38" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1311,13 +1309,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="32" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1326,7 +1324,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="38" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1347,16 +1345,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="38" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="32" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1368,52 +1366,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1750,11 +1748,11 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2061,49 +2059,49 @@
         <v>1</v>
       </c>
       <c r="K5" s="6">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" s="6">
         <v>70</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
     <row r="6" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B6" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>53</v>
@@ -2120,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" s="6">
         <v>5</v>
@@ -2143,10 +2141,10 @@
         <v>76</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>61</v>
@@ -2179,49 +2177,49 @@
         <v>1</v>
       </c>
       <c r="K7" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" s="6">
         <v>19</v>
       </c>
       <c r="O7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="V7" s="25" t="s">
-        <v>83</v>
       </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
     </row>
     <row r="8" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>53</v>
@@ -2238,33 +2236,33 @@
         <v>1</v>
       </c>
       <c r="K8" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N8" s="6">
         <v>12</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>61</v>
@@ -2274,13 +2272,13 @@
     </row>
     <row r="9" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B9" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>53</v>
@@ -2297,33 +2295,33 @@
         <v>1</v>
       </c>
       <c r="K9" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N9" s="6">
         <v>24</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>61</v>
@@ -2333,16 +2331,16 @@
     </row>
     <row r="10" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B10" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>54</v>
@@ -2356,51 +2354,51 @@
         <v>1</v>
       </c>
       <c r="K10" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>55</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B11" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>53</v>
@@ -2417,35 +2415,35 @@
         <v>1</v>
       </c>
       <c r="K11" s="6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N11" s="6">
         <v>20</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>61</v>
@@ -2455,16 +2453,16 @@
     </row>
     <row r="12" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B12" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>54</v>
@@ -2478,51 +2476,51 @@
         <v>1</v>
       </c>
       <c r="K12" s="6">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12" s="19">
         <v>27</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
     </row>
     <row r="13" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B13" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>53</v>
@@ -2539,49 +2537,49 @@
         <v>1</v>
       </c>
       <c r="K13" s="6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N13" s="6">
         <v>40</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
     </row>
     <row r="14" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B14" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>53</v>
@@ -2598,33 +2596,33 @@
         <v>1</v>
       </c>
       <c r="K14" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N14" s="6">
         <v>39</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>61</v>
@@ -2634,13 +2632,13 @@
     </row>
     <row r="15" s="5" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>53</v>
@@ -2657,33 +2655,33 @@
         <v>1</v>
       </c>
       <c r="K15" s="13">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>55</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N15" s="13">
         <v>48</v>
       </c>
-      <c r="O15" s="20" t="s">
-        <v>129</v>
+      <c r="O15" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>61</v>
@@ -2693,13 +2691,13 @@
     </row>
     <row r="16" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B16" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>53</v>
@@ -2719,48 +2717,48 @@
         <v>15</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" s="6">
         <v>32</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
     </row>
     <row r="17" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B17" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>53</v>
@@ -2777,49 +2775,51 @@
         <v>1</v>
       </c>
       <c r="K17" s="6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N17" s="6">
         <v>11</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="P17" s="17"/>
+        <v>134</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>114</v>
+      </c>
       <c r="Q17" s="17"/>
       <c r="R17" s="17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
     </row>
     <row r="18" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B18" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>53</v>
@@ -2836,52 +2836,54 @@
         <v>1</v>
       </c>
       <c r="K18" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N18" s="6">
         <v>7</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="P18" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="Q18" s="17"/>
       <c r="R18" s="17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
     </row>
     <row r="19" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B19" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>54</v>
@@ -2895,49 +2897,51 @@
         <v>1</v>
       </c>
       <c r="K19" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N19" s="6">
         <v>47</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="P19" s="17"/>
+        <v>143</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>114</v>
+      </c>
       <c r="Q19" s="17"/>
       <c r="R19" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
     </row>
     <row r="20" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B20" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>53</v>
@@ -2954,51 +2958,51 @@
         <v>1</v>
       </c>
       <c r="K20" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20" s="6">
         <v>75</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="17"/>
       <c r="R20" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
     </row>
     <row r="21" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B21" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>53</v>
@@ -3015,35 +3019,35 @@
         <v>1</v>
       </c>
       <c r="K21" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N21" s="6">
         <v>72</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>61</v>
@@ -3053,13 +3057,13 @@
     </row>
     <row r="22" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B22" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>53</v>
@@ -3076,35 +3080,35 @@
         <v>1</v>
       </c>
       <c r="K22" s="6">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>55</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N22" s="6">
         <v>68</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="17"/>
       <c r="R22" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V22" s="7" t="s">
         <v>61</v>
@@ -3114,13 +3118,13 @@
     </row>
     <row r="23" customFormat="1" ht="102" customHeight="1" spans="2:24">
       <c r="B23" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>53</v>
@@ -3137,38 +3141,38 @@
         <v>1</v>
       </c>
       <c r="K23" s="6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N23" s="6">
         <v>62</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>

--- a/Data/Datas/J_角色/角色列表/jynew角色.xlsx
+++ b/Data/Datas/J_角色/角色列表/jynew角色.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="174">
   <si>
     <t>##var</t>
   </si>
@@ -640,6 +640,27 @@
   </si>
   <si>
     <t>东方骤雨</t>
+  </si>
+  <si>
+    <t>南贤</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/21</t>
+  </si>
+  <si>
+    <t>基础拳法,1,10,TRUE;基础内功,1,10,TRUE;基础身法,1,10,TRUE</t>
+  </si>
+  <si>
+    <t>北丑</t>
+  </si>
+  <si>
+    <t>i18/role/main/name/22</t>
+  </si>
+  <si>
+    <t>软体娃娃</t>
+  </si>
+  <si>
+    <t>韦小宝</t>
   </si>
 </sst>
 </file>
@@ -822,7 +843,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,6 +877,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,7 +1187,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,16 +1211,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1211,80 +1238,80 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,6 +1328,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="38" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1327,6 +1357,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="38" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1348,6 +1381,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="38" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,6 +1398,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1745,36 +1784,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="N22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18" style="6" customWidth="1"/>
-    <col min="8" max="8" width="6.475" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.175" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="20.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="6" customWidth="1"/>
-    <col min="15" max="18" width="40.75" style="6" customWidth="1"/>
-    <col min="19" max="19" width="55.375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="14.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18" style="7" customWidth="1"/>
+    <col min="8" max="8" width="6.475" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.175" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="14.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="20.875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.25" style="7" customWidth="1"/>
+    <col min="15" max="18" width="40.75" style="7" customWidth="1"/>
+    <col min="19" max="19" width="55.375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.625" style="7" customWidth="1"/>
     <col min="21" max="21" width="19.375" customWidth="1"/>
-    <col min="22" max="22" width="40" style="7" customWidth="1"/>
+    <col min="22" max="22" width="40" style="8" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
     <col min="24" max="24" width="12.375" customWidth="1"/>
     <col min="25" max="25" width="18" customWidth="1"/>
@@ -1785,1397 +1824,1625 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" s="3" customFormat="1" customHeight="1" spans="1:25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10" t="s">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="83.1" customHeight="1" spans="2:24">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11">
+      <c r="H4" s="12"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="12">
         <v>2</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="12">
         <v>1</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="12">
         <v>0</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="15" t="s">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="24" t="s">
+      <c r="U4" s="12"/>
+      <c r="V4" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="6">
+      <c r="H5" s="7"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>25</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>70</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="17" t="s">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
     </row>
     <row r="6" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="6">
+      <c r="H6" s="7"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>25</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <v>5</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
     </row>
     <row r="7" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="6">
+      <c r="H7" s="7"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <v>18</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>19</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17" t="s">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="25" t="s">
+      <c r="V7" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
     </row>
     <row r="8" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="6">
+      <c r="H8" s="7"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <v>18</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="7">
         <v>12</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17" t="s">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
     </row>
     <row r="9" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>17</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>24</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17" t="s">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="7">
         <v>15</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17" t="s">
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="S10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="U10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
     </row>
     <row r="11" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="6">
+      <c r="H11" s="7"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="7">
         <v>1</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="7">
         <v>20</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
     </row>
     <row r="12" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="6">
+      <c r="H12" s="7"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="7">
         <v>1</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <v>30</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="21">
         <v>27</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17" t="s">
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="V12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
     </row>
     <row r="13" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7">
         <v>1</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="7">
         <v>40</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17" t="s">
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
     </row>
     <row r="14" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7">
         <v>1</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <v>20</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="7">
         <v>39</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17" t="s">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="U14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="V14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="13">
+      <c r="H15" s="7"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="14">
         <v>1</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="14">
         <v>20</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="14">
         <v>48</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="17" t="s">
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="V15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
     </row>
     <row r="16" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="6">
+      <c r="H16" s="7"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="7">
         <v>1</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="7">
         <v>15</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="7">
         <v>32</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17" t="s">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="S16" s="17" t="s">
+      <c r="S16" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="U16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="V16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
     </row>
     <row r="17" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="6">
+      <c r="H17" s="7"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="7">
         <v>1</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>16</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="7">
         <v>11</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17" t="s">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="S17" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="U17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="V17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
     </row>
     <row r="18" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="6">
+      <c r="H18" s="7"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="7">
         <v>1</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <v>25</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="7">
         <v>7</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17" t="s">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S18" s="17" t="s">
+      <c r="S18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="U18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
     </row>
     <row r="19" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="6">
+      <c r="H19" s="7"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="7">
         <v>1</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="7">
         <v>25</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="7">
         <v>47</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17" t="s">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="S19" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="U19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
     </row>
     <row r="20" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="6">
+      <c r="H20" s="7"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="7">
         <v>1</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="7">
         <v>15</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="7">
         <v>75</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17" t="s">
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="S20" s="17" t="s">
+      <c r="S20" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="6" t="s">
+      <c r="U20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
     </row>
     <row r="21" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="6">
+      <c r="H21" s="7"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="7">
         <v>1</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="7">
         <v>18</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="7">
         <v>72</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17" t="s">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="S21" s="17" t="s">
+      <c r="S21" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V21" s="7" t="s">
+      <c r="V21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
     </row>
     <row r="22" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="6">
+      <c r="H22" s="7"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="7">
         <v>1</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="7">
         <v>19</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="7">
         <v>68</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="P22" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17" t="s">
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="S22" s="17" t="s">
+      <c r="S22" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="T22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="U22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V22" s="7" t="s">
+      <c r="V22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
     </row>
     <row r="23" customFormat="1" ht="102" customHeight="1" spans="2:24">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="6">
+      <c r="H23" s="7"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="7">
         <v>1</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="7">
         <v>22</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="7">
         <v>62</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="P23" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17" t="s">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="S23" s="17" t="s">
+      <c r="S23" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="U23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V23" s="7" t="s">
+      <c r="V23" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="24" s="6" customFormat="1" ht="93" customHeight="1" spans="2:22">
+      <c r="B24" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="15">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="15">
+        <v>73</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V24" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="93" customHeight="1" spans="2:22">
+      <c r="B25" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="15">
+        <v>1</v>
+      </c>
+      <c r="K25" s="15">
+        <v>1</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="15">
+        <v>74</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V25" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" ht="93" customHeight="1" spans="2:22">
+      <c r="B26" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
+      <c r="K26" s="15">
+        <v>1</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="15">
+        <v>114</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="S26" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V26" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="93" customHeight="1" spans="2:22">
+      <c r="B27" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="15">
+        <v>1</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="15">
+        <v>111</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V27" s="29" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
